--- a/answers2.xlsx
+++ b/answers2.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,91 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
